--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T14:54:53+00:00</t>
+    <t>2024-05-27T15:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T15:00:38+00:00</t>
+    <t>2024-05-28T12:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:35:56+00:00</t>
+    <t>2024-05-28T13:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:45:00+00:00</t>
+    <t>2024-05-28T14:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:44:14+00:00</t>
+    <t>2024-05-28T14:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:54:25+00:00</t>
+    <t>2024-05-28T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T15:01:56+00:00</t>
+    <t>2024-05-29T08:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T08:10:39+00:00</t>
+    <t>2024-05-30T08:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T08:16:30+00:00</t>
+    <t>2024-05-31T12:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:49:41+00:00</t>
+    <t>2024-06-03T08:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T12:03:22+00:00</t>
+    <t>2024-06-03T13:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$118</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4189" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="737">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:21:14+00:00</t>
+    <t>2024-06-11T13:09:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -834,10 +834,7 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the Medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://ltsi.univ-rennes.fr/ValueSet/concept-medication-oncofair-valueset</t>
   </si>
   <si>
     <t>Composant</t>
@@ -864,6 +861,135 @@
     <t>RXE-2-Give Code / RXO-1 Requested Give Code / RXC-2 Component Code</t>
   </si>
   <si>
+    <t>MedicationRequest.medication.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept</t>
+  </si>
+  <si>
+    <t>Reference to a concept (by class)</t>
+  </si>
+  <si>
+    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+  </si>
+  <si>
+    <t>CodeableReference.concept</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;code value="component"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.concept.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>CodeableReference.reference</t>
+  </si>
+  <si>
     <t>MedicationRequest.subject</t>
   </si>
   <si>
@@ -1223,38 +1349,10 @@
     <t>MedicationRequest.note.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationRequest.note:wording.extension</t>
   </si>
   <si>
     <t>MedicationRequest.note.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationRequest.note:wording.author[x]</t>
@@ -1479,10 +1577,6 @@
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Free text dosage instructions e.g. SIG</t>
@@ -2542,7 +2636,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP110"/>
+  <dimension ref="A1:AP118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5531,13 +5625,11 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y25" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -5570,30 +5662,30 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AO25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5601,7 +5693,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>91</v>
@@ -5613,20 +5705,18 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -5675,49 +5765,49 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5736,15 +5826,17 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5781,19 +5873,19 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5805,7 +5897,7 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -5820,7 +5912,7 @@
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -5828,10 +5920,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5851,20 +5943,18 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>282</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5913,7 +6003,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5931,27 +6021,27 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>288</v>
+        <v>136</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5962,7 +6052,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5974,17 +6064,15 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -6033,34 +6121,34 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -6068,21 +6156,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -6091,18 +6179,20 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -6139,57 +6229,57 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6200,7 +6290,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -6212,16 +6302,20 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -6230,7 +6324,7 @@
         <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>80</v>
@@ -6269,13 +6363,13 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
@@ -6287,27 +6381,27 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6330,18 +6424,20 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -6389,7 +6485,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6416,18 +6512,18 @@
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6450,17 +6546,15 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6485,13 +6579,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -6509,7 +6603,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6527,7 +6621,7 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -6536,7 +6630,7 @@
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>324</v>
+        <v>136</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
@@ -6544,10 +6638,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6555,10 +6649,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -6567,18 +6661,20 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6627,13 +6723,13 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
@@ -6645,27 +6741,27 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6688,13 +6784,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6745,7 +6841,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6772,7 +6868,7 @@
         <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -6780,10 +6876,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6806,15 +6902,17 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6863,7 +6961,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6881,27 +6979,27 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6924,16 +7022,16 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6959,13 +7057,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6983,7 +7081,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -7001,27 +7099,27 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7041,20 +7139,18 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -7079,13 +7175,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>358</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -7103,7 +7199,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -7121,27 +7217,27 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7152,7 +7248,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -7161,16 +7257,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7221,13 +7317,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -7239,16 +7335,16 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -7256,10 +7352,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7267,30 +7363,32 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>368</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7327,23 +7425,25 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -7355,16 +7455,16 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>80</v>
@@ -7372,20 +7472,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -7397,18 +7495,20 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7433,13 +7533,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>361</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7457,13 +7557,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -7472,19 +7572,19 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>80</v>
@@ -7492,10 +7592,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7503,10 +7603,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -7518,13 +7618,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>93</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7536,7 +7636,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>376</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -7575,34 +7675,34 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
@@ -7610,14 +7710,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7636,17 +7736,15 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>138</v>
+        <v>373</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7683,19 +7781,19 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7707,7 +7805,7 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7722,7 +7820,7 @@
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -7730,10 +7828,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7753,20 +7851,18 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7815,7 +7911,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7839,21 +7935,21 @@
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7864,7 +7960,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7873,18 +7969,20 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>218</v>
+        <v>383</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7909,13 +8007,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7933,13 +8031,13 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7951,27 +8049,27 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>136</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7979,7 +8077,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7991,18 +8089,20 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>408</v>
+        <v>208</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -8027,13 +8127,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -8051,10 +8151,10 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>91</v>
@@ -8078,22 +8178,20 @@
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>80</v>
       </c>
@@ -8102,7 +8200,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -8114,13 +8212,13 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -8171,7 +8269,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8186,19 +8284,19 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -8206,10 +8304,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8220,10 +8318,10 @@
         <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>80</v>
@@ -8232,13 +8330,13 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>93</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -8250,73 +8348,71 @@
         <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AC48" s="2"/>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -8324,21 +8420,23 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="D49" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -8350,17 +8448,15 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>138</v>
+        <v>408</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8397,19 +8493,19 @@
         <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8421,22 +8517,22 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8447,7 +8543,7 @@
         <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8455,7 +8551,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>91</v>
@@ -8467,20 +8563,18 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>394</v>
+        <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>266</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8490,7 +8584,7 @@
         <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>80</v>
@@ -8529,7 +8623,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>398</v>
+        <v>268</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8538,10 +8632,10 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -8556,29 +8650,29 @@
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>399</v>
+        <v>270</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -8587,18 +8681,20 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8635,31 +8731,31 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>404</v>
+        <v>275</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -8674,18 +8770,18 @@
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>405</v>
+        <v>270</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8693,7 +8789,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>91</v>
@@ -8708,15 +8804,17 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8765,10 +8863,10 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>91</v>
@@ -8792,7 +8890,7 @@
         <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>136</v>
@@ -8800,14 +8898,12 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8825,16 +8921,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>368</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8885,13 +8981,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>367</v>
+        <v>435</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8900,30 +8996,30 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>380</v>
+        <v>438</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8943,16 +9039,16 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>93</v>
+        <v>439</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8964,7 +9060,7 @@
         <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>80</v>
@@ -9003,19 +9099,19 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -9030,29 +9126,31 @@
         <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>385</v>
+        <v>443</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="D55" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -9064,17 +9162,15 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>138</v>
+        <v>408</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -9111,19 +9207,19 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9135,22 +9231,22 @@
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>447</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9158,10 +9254,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9169,7 +9265,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>91</v>
@@ -9181,20 +9277,18 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>394</v>
+        <v>93</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>395</v>
+        <v>266</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -9204,7 +9298,7 @@
         <v>80</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>80</v>
@@ -9243,7 +9337,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>398</v>
+        <v>268</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9252,10 +9346,10 @@
         <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -9270,29 +9364,29 @@
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>399</v>
+        <v>270</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -9301,18 +9395,20 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>272</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9349,31 +9445,31 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>275</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -9388,18 +9484,18 @@
         <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>405</v>
+        <v>270</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9407,7 +9503,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>91</v>
@@ -9422,15 +9518,17 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9479,10 +9577,10 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>91</v>
@@ -9506,7 +9604,7 @@
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>136</v>
@@ -9514,10 +9612,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9537,21 +9635,19 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>408</v>
+        <v>218</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9599,7 +9695,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9626,18 +9722,18 @@
         <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9645,7 +9741,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>91</v>
@@ -9657,16 +9753,16 @@
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9717,10 +9813,10 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>91</v>
@@ -9744,20 +9840,22 @@
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9769,7 +9867,7 @@
         <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9778,17 +9876,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9837,7 +9933,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9852,19 +9948,19 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>445</v>
+        <v>414</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9872,10 +9968,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9883,7 +9979,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>91</v>
@@ -9901,10 +9997,10 @@
         <v>93</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>381</v>
+        <v>266</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>382</v>
+        <v>267</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9916,7 +10012,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -9955,7 +10051,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>383</v>
+        <v>268</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9964,7 +10060,7 @@
         <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>80</v>
@@ -9982,7 +10078,7 @@
         <v>80</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9990,10 +10086,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10019,10 +10115,10 @@
         <v>138</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>388</v>
+        <v>272</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>389</v>
+        <v>273</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>164</v>
@@ -10066,7 +10162,7 @@
         <v>141</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>390</v>
+        <v>274</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
@@ -10075,7 +10171,7 @@
         <v>142</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>391</v>
+        <v>275</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10102,7 +10198,7 @@
         <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -10110,46 +10206,44 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>138</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10197,19 +10291,19 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -10224,18 +10318,18 @@
         <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10258,18 +10352,16 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>454</v>
+        <v>218</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>457</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -10317,7 +10409,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10344,18 +10436,18 @@
         <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>460</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10363,7 +10455,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>91</v>
@@ -10378,18 +10470,16 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>465</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10437,10 +10527,10 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>91</v>
@@ -10464,18 +10554,18 @@
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>467</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10486,7 +10576,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10495,22 +10585,20 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>208</v>
+        <v>439</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10535,13 +10623,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10559,13 +10647,13 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
@@ -10586,18 +10674,18 @@
         <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10617,16 +10705,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10677,7 +10765,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10704,18 +10792,18 @@
         <v>80</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10729,29 +10817,27 @@
         <v>91</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10799,13 +10885,13 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
@@ -10826,7 +10912,7 @@
         <v>80</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -10834,10 +10920,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10857,20 +10943,18 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>248</v>
+        <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>490</v>
+        <v>266</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10919,7 +11003,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>493</v>
+        <v>268</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10928,10 +11012,10 @@
         <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>494</v>
+        <v>269</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -10946,22 +11030,22 @@
         <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>495</v>
+        <v>270</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10977,19 +11061,19 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>272</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>499</v>
+        <v>273</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>500</v>
+        <v>164</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11015,31 +11099,31 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>503</v>
+        <v>275</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -11048,10 +11132,10 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -11066,53 +11150,53 @@
         <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>495</v>
+        <v>270</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>507</v>
+        <v>164</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>508</v>
+        <v>165</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11137,13 +11221,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11161,19 +11245,19 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -11188,18 +11272,18 @@
         <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>512</v>
+        <v>136</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11222,17 +11306,17 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>208</v>
+        <v>485</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11257,13 +11341,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>518</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>519</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11281,7 +11365,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11308,18 +11392,18 @@
         <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>522</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11342,19 +11426,17 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>208</v>
+        <v>293</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11379,13 +11461,13 @@
         <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>80</v>
@@ -11403,7 +11485,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11430,18 +11512,18 @@
         <v>80</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>532</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>533</v>
+        <v>498</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11452,7 +11534,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -11464,16 +11546,20 @@
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>534</v>
+        <v>208</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>535</v>
+        <v>499</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11497,13 +11583,13 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>80</v>
+        <v>503</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11521,7 +11607,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11548,18 +11634,18 @@
         <v>80</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>538</v>
+        <v>490</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>539</v>
+        <v>506</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11579,16 +11665,16 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>462</v>
+        <v>293</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>381</v>
+        <v>508</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11639,7 +11725,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>383</v>
+        <v>510</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11648,10 +11734,10 @@
         <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11666,29 +11752,29 @@
         <v>80</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>385</v>
+        <v>490</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>80</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -11697,21 +11783,23 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>138</v>
+        <v>512</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>388</v>
+        <v>513</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>389</v>
+        <v>514</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11747,31 +11835,31 @@
         <v>80</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>391</v>
+        <v>517</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11786,7 +11874,7 @@
         <v>80</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>385</v>
+        <v>518</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>80</v>
@@ -11794,10 +11882,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11820,18 +11908,18 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>545</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11855,13 +11943,13 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11879,7 +11967,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11888,7 +11976,7 @@
         <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>103</v>
@@ -11906,18 +11994,18 @@
         <v>80</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>549</v>
+        <v>526</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11925,10 +12013,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11940,20 +12028,18 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>551</v>
+        <v>208</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11977,38 +12063,40 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>80</v>
+        <v>531</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AC79" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>103</v>
@@ -12026,28 +12114,26 @@
         <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>560</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>562</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>91</v>
@@ -12059,22 +12145,22 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>551</v>
+        <v>208</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -12099,13 +12185,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12123,7 +12209,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12135,10 +12221,10 @@
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>566</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>567</v>
+        <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>80</v>
@@ -12150,18 +12236,18 @@
         <v>80</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>569</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12184,19 +12270,17 @@
         <v>92</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>571</v>
+        <v>208</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12221,13 +12305,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>80</v>
+        <v>549</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12245,7 +12329,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12272,18 +12356,18 @@
         <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>578</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12294,7 +12378,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -12306,19 +12390,19 @@
         <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>580</v>
+        <v>208</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>582</v>
+        <v>555</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>583</v>
+        <v>556</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12343,13 +12427,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -12367,13 +12451,13 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
@@ -12394,18 +12478,18 @@
         <v>80</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>587</v>
+        <v>562</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12428,20 +12512,16 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12489,13 +12569,13 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>593</v>
+        <v>567</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
@@ -12516,18 +12596,18 @@
         <v>80</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12547,21 +12627,19 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>551</v>
+        <v>293</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>596</v>
+        <v>266</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>597</v>
+        <v>267</v>
       </c>
       <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>598</v>
-      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12609,7 +12687,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>599</v>
+        <v>268</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12618,10 +12696,10 @@
         <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>80</v>
@@ -12636,7 +12714,7 @@
         <v>80</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>594</v>
+        <v>270</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>80</v>
@@ -12644,21 +12722,21 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>600</v>
+        <v>571</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -12670,15 +12748,17 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>601</v>
+        <v>138</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>602</v>
+        <v>272</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12715,31 +12795,31 @@
         <v>80</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>600</v>
+        <v>275</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
@@ -12748,13 +12828,13 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>604</v>
+        <v>80</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>605</v>
+        <v>270</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>80</v>
@@ -12762,10 +12842,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12785,19 +12865,21 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>462</v>
+        <v>208</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>381</v>
+        <v>573</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>382</v>
+        <v>574</v>
       </c>
       <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12821,13 +12903,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>80</v>
+        <v>576</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>80</v>
+        <v>577</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -12845,7 +12927,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>383</v>
+        <v>578</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12854,10 +12936,10 @@
         <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -12872,29 +12954,29 @@
         <v>80</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>80</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12903,21 +12985,23 @@
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>138</v>
+        <v>581</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>388</v>
+        <v>582</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>389</v>
+        <v>583</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12953,31 +13037,29 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="AC87" s="2"/>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>80</v>
+        <v>587</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>391</v>
+        <v>588</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12992,53 +13074,55 @@
         <v>80</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>385</v>
+        <v>589</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>80</v>
+        <v>590</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>580</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="D88" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>138</v>
+        <v>581</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>450</v>
+        <v>593</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>451</v>
+        <v>594</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>164</v>
+        <v>595</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>165</v>
+        <v>585</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -13087,22 +13171,22 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>144</v>
+        <v>596</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>80</v>
+        <v>597</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
@@ -13114,18 +13198,18 @@
         <v>80</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>136</v>
+        <v>598</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13145,21 +13229,23 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>601</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>604</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>605</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13207,7 +13293,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13234,18 +13320,18 @@
         <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>80</v>
+        <v>608</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13256,7 +13342,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -13265,19 +13351,23 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>462</v>
+        <v>610</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>381</v>
+        <v>611</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
@@ -13325,19 +13415,19 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>383</v>
+        <v>615</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
@@ -13352,29 +13442,29 @@
         <v>80</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>385</v>
+        <v>616</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>80</v>
+        <v>617</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -13383,21 +13473,23 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>138</v>
+        <v>581</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>388</v>
+        <v>619</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>389</v>
+        <v>620</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -13445,19 +13537,19 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>391</v>
+        <v>623</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
@@ -13472,7 +13564,7 @@
         <v>80</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>385</v>
+        <v>624</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>80</v>
@@ -13480,45 +13572,43 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>138</v>
+        <v>581</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>450</v>
+        <v>626</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>165</v>
+        <v>628</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13567,19 +13657,19 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
@@ -13594,7 +13684,7 @@
         <v>80</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>136</v>
+        <v>624</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>80</v>
@@ -13602,10 +13692,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13628,13 +13718,13 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>551</v>
+        <v>631</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13685,7 +13775,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13706,13 +13796,13 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>80</v>
+        <v>634</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>80</v>
@@ -13720,10 +13810,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13746,13 +13836,13 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>623</v>
+        <v>293</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>624</v>
+        <v>266</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>625</v>
+        <v>267</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13803,7 +13893,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>622</v>
+        <v>268</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13812,10 +13902,10 @@
         <v>91</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
@@ -13830,7 +13920,7 @@
         <v>80</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>626</v>
+        <v>270</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>80</v>
@@ -13838,21 +13928,21 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13864,15 +13954,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>623</v>
+        <v>138</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>628</v>
+        <v>272</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13921,19 +14013,19 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>627</v>
+        <v>275</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
@@ -13948,7 +14040,7 @@
         <v>80</v>
       </c>
       <c r="AO95" t="s" s="2">
-        <v>626</v>
+        <v>270</v>
       </c>
       <c r="AP95" t="s" s="2">
         <v>80</v>
@@ -13956,45 +14048,45 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>436</v>
+        <v>138</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>631</v>
+        <v>481</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>632</v>
+        <v>482</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>633</v>
+        <v>164</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>634</v>
+        <v>165</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -14043,19 +14135,19 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
@@ -14064,13 +14156,13 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>635</v>
+        <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>636</v>
+        <v>136</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>80</v>
@@ -14078,10 +14170,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14104,16 +14196,16 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14163,7 +14255,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14184,16 +14276,16 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>642</v>
+        <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>644</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" hidden="true">
@@ -14224,13 +14316,13 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>551</v>
+        <v>293</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>646</v>
+        <v>266</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>647</v>
+        <v>267</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14281,7 +14373,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>645</v>
+        <v>268</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14290,10 +14382,10 @@
         <v>91</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
@@ -14302,35 +14394,35 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>648</v>
+        <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>649</v>
+        <v>270</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>650</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -14342,16 +14434,16 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>623</v>
+        <v>138</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>652</v>
+        <v>272</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>653</v>
+        <v>273</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>654</v>
+        <v>164</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14401,19 +14493,19 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>651</v>
+        <v>275</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>80</v>
@@ -14422,13 +14514,13 @@
         <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>655</v>
+        <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>656</v>
+        <v>270</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>80</v>
@@ -14436,42 +14528,46 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>658</v>
+        <v>138</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>659</v>
+        <v>481</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
       </c>
@@ -14519,19 +14615,19 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>80</v>
@@ -14543,10 +14639,10 @@
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>340</v>
+        <v>80</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>661</v>
+        <v>136</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>80</v>
@@ -14554,10 +14650,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14568,7 +14664,7 @@
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>80</v>
@@ -14580,13 +14676,13 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>368</v>
+        <v>581</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14637,13 +14733,13 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>80</v>
@@ -14664,7 +14760,7 @@
         <v>80</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>80</v>
@@ -14672,10 +14768,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14698,13 +14794,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>208</v>
+        <v>653</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14731,11 +14827,13 @@
         <v>80</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y102" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z102" t="s" s="2">
-        <v>669</v>
+        <v>80</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
@@ -14753,7 +14851,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14780,7 +14878,7 @@
         <v>80</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="AP102" t="s" s="2">
         <v>80</v>
@@ -14788,10 +14886,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14805,7 +14903,7 @@
         <v>91</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>80</v>
@@ -14814,13 +14912,13 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>601</v>
+        <v>653</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14871,7 +14969,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14892,13 +14990,13 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>674</v>
+        <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>80</v>
@@ -14906,10 +15004,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14932,16 +15030,20 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>381</v>
+        <v>661</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
+        <v>662</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>664</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
       </c>
@@ -14989,7 +15091,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>383</v>
+        <v>660</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14998,10 +15100,10 @@
         <v>91</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>384</v>
+        <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>80</v>
@@ -15010,13 +15112,13 @@
         <v>80</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>80</v>
+        <v>665</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>385</v>
+        <v>666</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>80</v>
@@ -15024,21 +15126,21 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>80</v>
@@ -15050,16 +15152,16 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>138</v>
+        <v>668</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>388</v>
+        <v>669</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>389</v>
+        <v>670</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>164</v>
+        <v>671</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15109,19 +15211,19 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>391</v>
+        <v>667</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>80</v>
@@ -15130,60 +15232,56 @@
         <v>80</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>80</v>
+        <v>672</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>385</v>
+        <v>673</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>80</v>
+        <v>674</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>138</v>
+        <v>581</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>450</v>
+        <v>676</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>677</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>80</v>
       </c>
@@ -15231,19 +15329,19 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>609</v>
+        <v>675</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>80</v>
@@ -15252,24 +15350,24 @@
         <v>80</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>80</v>
+        <v>678</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>136</v>
+        <v>679</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>80</v>
+        <v>680</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15277,7 +15375,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>91</v>
@@ -15292,16 +15390,16 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15327,32 +15425,34 @@
         <v>80</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>684</v>
+        <v>80</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>685</v>
+        <v>80</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>686</v>
+        <v>80</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AC107" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>91</v>
@@ -15370,28 +15470,26 @@
         <v>80</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AP107" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>690</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
         <v>80</v>
       </c>
@@ -15412,17 +15510,15 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>248</v>
+        <v>688</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>683</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>80</v>
@@ -15471,10 +15567,10 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>91</v>
@@ -15486,30 +15582,30 @@
         <v>103</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>692</v>
+        <v>80</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>674</v>
+        <v>80</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="AP108" t="s" s="2">
-        <v>688</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15520,7 +15616,7 @@
         <v>78</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>80</v>
@@ -15532,13 +15628,13 @@
         <v>80</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>208</v>
+        <v>408</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>694</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>695</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -15565,13 +15661,13 @@
         <v>80</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>696</v>
+        <v>80</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>697</v>
+        <v>80</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
@@ -15589,13 +15685,13 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>80</v>
@@ -15610,24 +15706,24 @@
         <v>80</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>699</v>
+        <v>80</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15638,7 +15734,7 @@
         <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>80</v>
@@ -15650,17 +15746,15 @@
         <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>701</v>
+        <v>208</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>704</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -15685,13 +15779,11 @@
         <v>80</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>80</v>
+        <v>699</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
@@ -15709,13 +15801,13 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>80</v>
@@ -15727,23 +15819,979 @@
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO111" t="s" s="2">
         <v>705</v>
       </c>
-      <c r="AM110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO110" t="s" s="2">
+      <c r="AP111" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
         <v>706</v>
       </c>
-      <c r="AP110" t="s" s="2">
+      <c r="B112" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AP112" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AP113" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AP114" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AC115" s="2"/>
+      <c r="AD115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="AP115" t="s" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="AP116" t="s" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="AP117" t="s" s="2">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="AP118" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP110">
+  <autoFilter ref="A1:AP118">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15753,7 +16801,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI109">
+  <conditionalFormatting sqref="A2:AI117">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:09:11+00:00</t>
+    <t>2024-06-11T13:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:23+00:00</t>
+    <t>2024-06-11T13:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:58+00:00</t>
+    <t>2024-06-11T13:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:40:55+00:00</t>
+    <t>2024-06-11T14:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T14:41:15+00:00</t>
+    <t>2024-06-14T09:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$114</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4490" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4337" uniqueCount="718">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T09:45:22+00:00</t>
+    <t>2024-06-17T08:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -904,74 +904,14 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="component"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>CodeableReference.concept</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;code value="component"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication.concept.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationRequest.medication.reference</t>
@@ -1577,6 +1517,10 @@
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Free text dosage instructions e.g. SIG</t>
@@ -2636,7 +2580,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP118"/>
+  <dimension ref="A1:AP114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5964,7 +5908,7 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>80</v>
@@ -6003,7 +5947,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -6038,10 +5982,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6061,16 +6005,16 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>93</v>
+        <v>282</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -6121,7 +6065,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -6130,10 +6074,10 @@
         <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
@@ -6148,7 +6092,7 @@
         <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -6156,21 +6100,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -6179,19 +6123,19 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6229,57 +6173,57 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>80</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6299,23 +6243,19 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -6324,7 +6264,7 @@
         <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>80</v>
@@ -6363,7 +6303,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -6390,18 +6330,18 @@
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6421,23 +6361,21 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -6485,7 +6423,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6503,27 +6441,27 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6534,7 +6472,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6543,18 +6481,20 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6603,13 +6543,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -6621,16 +6561,16 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>136</v>
+        <v>316</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
@@ -6638,10 +6578,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6649,7 +6589,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>91</v>
@@ -6664,17 +6604,15 @@
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6723,10 +6661,10 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>91</v>
@@ -6741,27 +6679,27 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6772,7 +6710,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6781,16 +6719,16 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6841,13 +6779,13 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
@@ -6859,16 +6797,16 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -6876,10 +6814,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6899,19 +6837,19 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6961,7 +6899,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6979,27 +6917,27 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -7010,7 +6948,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -7019,19 +6957,19 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>208</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7057,13 +6995,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -7081,13 +7019,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -7099,16 +7037,16 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -7116,10 +7054,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -7130,7 +7068,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -7139,16 +7077,16 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -7199,13 +7137,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -7217,27 +7155,27 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7248,7 +7186,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -7257,16 +7195,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7317,13 +7255,13 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -7335,16 +7273,16 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -7352,10 +7290,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7375,20 +7313,18 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>248</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7437,7 +7373,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7461,10 +7397,10 @@
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>80</v>
@@ -7472,10 +7408,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7486,7 +7422,7 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -7495,19 +7431,19 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>208</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7533,37 +7469,37 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>360</v>
+        <v>212</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Z41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AA41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -7575,27 +7511,27 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7606,7 +7542,7 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -7618,15 +7554,17 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>366</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7651,13 +7589,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7675,13 +7613,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -7693,16 +7631,16 @@
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
@@ -7710,10 +7648,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7736,13 +7674,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7793,7 +7731,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7811,7 +7749,7 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
@@ -7820,7 +7758,7 @@
         <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -7828,10 +7766,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7839,13 +7777,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7854,13 +7792,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7899,25 +7837,23 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7929,16 +7865,16 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7946,21 +7882,23 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7972,17 +7910,15 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -8007,31 +7943,31 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -8046,30 +7982,30 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8077,7 +8013,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -8092,17 +8028,15 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
+        <v>266</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -8112,7 +8046,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -8127,13 +8061,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -8151,7 +8085,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>394</v>
+        <v>268</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -8160,10 +8094,10 @@
         <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -8178,7 +8112,7 @@
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>400</v>
+        <v>270</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -8189,11 +8123,11 @@
         <v>401</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -8212,15 +8146,17 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>402</v>
+        <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>403</v>
+        <v>272</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -8257,19 +8193,19 @@
         <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>401</v>
+        <v>275</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8281,13 +8217,13 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>405</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
@@ -8296,7 +8232,7 @@
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>406</v>
+        <v>270</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -8304,10 +8240,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8315,30 +8251,32 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K48" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8375,23 +8313,25 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AC48" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -8403,37 +8343,35 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>91</v>
@@ -8445,16 +8383,16 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>408</v>
+        <v>218</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8505,13 +8443,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -8520,30 +8458,30 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8563,16 +8501,16 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>93</v>
+        <v>419</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>266</v>
+        <v>420</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>267</v>
+        <v>421</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8584,7 +8522,7 @@
         <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>80</v>
@@ -8623,19 +8561,19 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>268</v>
+        <v>422</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
@@ -8650,29 +8588,31 @@
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>270</v>
+        <v>423</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="D51" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -8684,17 +8624,15 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>138</v>
+        <v>388</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>272</v>
+        <v>426</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8731,19 +8669,19 @@
         <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>275</v>
+        <v>387</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8755,22 +8693,22 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>270</v>
+        <v>394</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8778,10 +8716,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8789,7 +8727,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>91</v>
@@ -8801,20 +8739,18 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>425</v>
+        <v>93</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8824,7 +8760,7 @@
         <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>80</v>
@@ -8863,7 +8799,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>429</v>
+        <v>268</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8872,10 +8808,10 @@
         <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>80</v>
@@ -8890,29 +8826,29 @@
         <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8921,18 +8857,20 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>433</v>
+        <v>272</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8969,31 +8907,31 @@
         <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>80</v>
@@ -9008,18 +8946,18 @@
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>436</v>
+        <v>270</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9027,7 +8965,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>91</v>
@@ -9042,15 +8980,17 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -9099,10 +9039,10 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>91</v>
@@ -9126,7 +9066,7 @@
         <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>136</v>
@@ -9134,14 +9074,12 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>80</v>
       </c>
@@ -9159,16 +9097,16 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>408</v>
+        <v>218</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -9219,13 +9157,13 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -9234,30 +9172,30 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9277,16 +9215,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>93</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>266</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>267</v>
+        <v>421</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9298,7 +9236,7 @@
         <v>80</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>80</v>
@@ -9337,19 +9275,19 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>268</v>
+        <v>422</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>80</v>
@@ -9364,29 +9302,31 @@
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>270</v>
+        <v>423</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="D57" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -9398,17 +9338,15 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>138</v>
+        <v>388</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>272</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9445,19 +9383,19 @@
         <v>80</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>275</v>
+        <v>387</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9469,22 +9407,22 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>270</v>
+        <v>394</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9492,10 +9430,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9503,7 +9441,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>91</v>
@@ -9515,20 +9453,18 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>425</v>
+        <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9538,7 +9474,7 @@
         <v>80</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>80</v>
@@ -9577,7 +9513,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>429</v>
+        <v>268</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9586,10 +9522,10 @@
         <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
@@ -9604,29 +9540,29 @@
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9635,18 +9571,20 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>433</v>
+        <v>272</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9683,31 +9621,31 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
@@ -9722,18 +9660,18 @@
         <v>80</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>436</v>
+        <v>270</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9741,7 +9679,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>91</v>
@@ -9756,15 +9694,17 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9813,10 +9753,10 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>91</v>
@@ -9840,7 +9780,7 @@
         <v>80</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>136</v>
@@ -9848,14 +9788,12 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9873,16 +9811,16 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>408</v>
+        <v>218</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9933,13 +9871,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9948,30 +9886,30 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9991,16 +9929,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>93</v>
+        <v>419</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>266</v>
+        <v>420</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>267</v>
+        <v>421</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10012,7 +9950,7 @@
         <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>80</v>
@@ -10051,19 +9989,19 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>268</v>
+        <v>422</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -10078,29 +10016,29 @@
         <v>80</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>270</v>
+        <v>423</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -10112,18 +10050,18 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>138</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>272</v>
+        <v>442</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -10159,31 +10097,31 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>275</v>
+        <v>441</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -10198,7 +10136,7 @@
         <v>80</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>270</v>
+        <v>445</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -10206,10 +10144,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10229,20 +10167,18 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10291,7 +10227,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10318,18 +10254,18 @@
         <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10343,24 +10279,26 @@
         <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>218</v>
+        <v>452</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -10409,13 +10347,13 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
@@ -10436,18 +10374,18 @@
         <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10455,7 +10393,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>91</v>
@@ -10467,16 +10405,16 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>439</v>
+        <v>93</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>440</v>
+        <v>266</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>441</v>
+        <v>267</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10527,19 +10465,19 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>442</v>
+        <v>268</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
@@ -10554,29 +10492,29 @@
         <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>443</v>
+        <v>270</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10588,18 +10526,18 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>138</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>462</v>
+        <v>272</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10635,31 +10573,31 @@
         <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>461</v>
+        <v>275</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10674,7 +10612,7 @@
         <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>465</v>
+        <v>270</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>80</v>
@@ -10682,42 +10620,46 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>467</v>
+        <v>138</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10765,19 +10707,19 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10792,7 +10734,7 @@
         <v>80</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>470</v>
+        <v>136</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>80</v>
@@ -10800,10 +10742,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10817,27 +10759,27 @@
         <v>91</v>
       </c>
       <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K69" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10885,13 +10827,13 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
@@ -10912,18 +10854,18 @@
         <v>80</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10943,19 +10885,21 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>93</v>
+        <v>473</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>266</v>
+        <v>474</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>267</v>
+        <v>475</v>
       </c>
       <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -11003,7 +10947,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>268</v>
+        <v>477</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -11012,10 +10956,10 @@
         <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>80</v>
@@ -11030,22 +10974,22 @@
         <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -11061,21 +11005,23 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>273</v>
+        <v>481</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -11099,31 +11045,31 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>275</v>
+        <v>486</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -11135,7 +11081,7 @@
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>80</v>
@@ -11150,54 +11096,50 @@
         <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>138</v>
+        <v>473</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11245,19 +11187,19 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>80</v>
@@ -11272,18 +11214,18 @@
         <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>136</v>
+        <v>470</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11306,17 +11248,19 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="O73" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11365,7 +11309,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11392,18 +11336,18 @@
         <v>80</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>491</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11426,18 +11370,18 @@
         <v>92</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -11485,7 +11429,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11494,7 +11438,7 @@
         <v>91</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>103</v>
@@ -11512,18 +11456,18 @@
         <v>80</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11549,17 +11493,15 @@
         <v>208</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11586,10 +11528,10 @@
         <v>212</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11607,7 +11549,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11616,7 +11558,7 @@
         <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>103</v>
@@ -11634,18 +11576,18 @@
         <v>80</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11668,16 +11610,20 @@
         <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11701,13 +11647,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>80</v>
+        <v>521</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -11725,7 +11671,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11752,18 +11698,18 @@
         <v>80</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11786,19 +11732,17 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>512</v>
+        <v>208</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -11823,13 +11767,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>529</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11847,7 +11791,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11874,18 +11818,18 @@
         <v>80</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11908,18 +11852,20 @@
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O78" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11943,13 +11889,13 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11967,7 +11913,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11976,7 +11922,7 @@
         <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>103</v>
@@ -11994,18 +11940,18 @@
         <v>80</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -12016,7 +11962,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -12028,17 +11974,15 @@
         <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>208</v>
+        <v>545</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>530</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -12063,13 +12007,13 @@
         <v>80</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>80</v>
@@ -12087,7 +12031,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -12096,7 +12040,7 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>103</v>
@@ -12114,18 +12058,18 @@
         <v>80</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>526</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>534</v>
+        <v>551</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12145,23 +12089,19 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>208</v>
+        <v>473</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>535</v>
+        <v>266</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>538</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -12185,13 +12125,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>539</v>
+        <v>80</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>540</v>
+        <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12209,7 +12149,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>541</v>
+        <v>268</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12218,10 +12158,10 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
@@ -12236,29 +12176,29 @@
         <v>80</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>542</v>
+        <v>270</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>543</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -12267,21 +12207,21 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>545</v>
+        <v>272</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12305,43 +12245,43 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>550</v>
+        <v>275</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
@@ -12356,10 +12296,10 @@
         <v>80</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>551</v>
+        <v>270</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>552</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" hidden="true">
@@ -12398,11 +12338,9 @@
       <c r="M82" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12430,28 +12368,28 @@
         <v>212</v>
       </c>
       <c r="Y82" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Z82" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="Z82" t="s" s="2">
+      <c r="AA82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF82" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12478,18 +12416,18 @@
         <v>80</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>561</v>
+        <v>80</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12497,7 +12435,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>91</v>
@@ -12512,16 +12450,20 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12557,25 +12499,23 @@
         <v>80</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="AC83" s="2"/>
       <c r="AD83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>80</v>
+        <v>568</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
@@ -12596,26 +12536,28 @@
         <v>80</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>91</v>
@@ -12630,16 +12572,20 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>293</v>
+        <v>562</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>266</v>
+        <v>574</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12687,7 +12633,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>268</v>
+        <v>569</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12696,13 +12642,13 @@
         <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>80</v>
+        <v>577</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>578</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>80</v>
@@ -12714,29 +12660,29 @@
         <v>80</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>270</v>
+        <v>579</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>80</v>
+        <v>580</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -12745,21 +12691,23 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>138</v>
+        <v>582</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>272</v>
+        <v>583</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>273</v>
+        <v>584</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12795,31 +12743,31 @@
         <v>80</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>275</v>
+        <v>587</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
@@ -12834,18 +12782,18 @@
         <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>270</v>
+        <v>588</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>80</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12856,7 +12804,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12868,17 +12816,19 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>208</v>
+        <v>591</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>594</v>
+      </c>
       <c r="O86" t="s" s="2">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12903,13 +12853,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>577</v>
+        <v>80</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -12927,13 +12877,13 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
@@ -12954,18 +12904,18 @@
         <v>80</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>80</v>
+        <v>597</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>579</v>
+        <v>598</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12973,7 +12923,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>91</v>
@@ -12988,19 +12938,19 @@
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -13037,17 +12987,19 @@
         <v>80</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AC87" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -13074,28 +13026,26 @@
         <v>80</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>590</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>91</v>
@@ -13107,22 +13057,20 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -13171,7 +13119,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -13183,10 +13131,10 @@
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>596</v>
+        <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>597</v>
+        <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>80</v>
@@ -13198,18 +13146,18 @@
         <v>80</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>599</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13229,23 +13177,19 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13293,7 +13237,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13314,24 +13258,24 @@
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>80</v>
+        <v>615</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>608</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13342,7 +13286,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -13351,23 +13295,19 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>610</v>
+        <v>473</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>611</v>
+        <v>266</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>614</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
@@ -13415,19 +13355,19 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>615</v>
+        <v>268</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
@@ -13442,10 +13382,10 @@
         <v>80</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>616</v>
+        <v>270</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>617</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" hidden="true">
@@ -13457,14 +13397,14 @@
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>80</v>
@@ -13473,23 +13413,21 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>581</v>
+        <v>138</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>619</v>
+        <v>272</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>620</v>
+        <v>273</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>622</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -13537,19 +13475,19 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>623</v>
+        <v>275</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
@@ -13564,7 +13502,7 @@
         <v>80</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>624</v>
+        <v>270</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>80</v>
@@ -13572,43 +13510,45 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>581</v>
+        <v>138</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>626</v>
+        <v>461</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O92" t="s" s="2">
-        <v>628</v>
+        <v>165</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13657,19 +13597,19 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
@@ -13684,7 +13624,7 @@
         <v>80</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>624</v>
+        <v>136</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>80</v>
@@ -13692,10 +13632,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13718,15 +13658,17 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>631</v>
+        <v>612</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13775,7 +13717,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13796,13 +13738,13 @@
         <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>634</v>
+        <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>80</v>
@@ -13810,10 +13752,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13836,7 +13778,7 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>293</v>
+        <v>473</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>266</v>
@@ -13928,10 +13870,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14048,14 +13990,14 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -14077,10 +14019,10 @@
         <v>138</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>164</v>
@@ -14135,7 +14077,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -14170,10 +14112,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14196,17 +14138,15 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>643</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -14255,7 +14195,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14282,7 +14222,7 @@
         <v>80</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="AP97" t="s" s="2">
         <v>80</v>
@@ -14290,10 +14230,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14316,13 +14256,13 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>293</v>
+        <v>634</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>266</v>
+        <v>635</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>267</v>
+        <v>636</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -14373,7 +14313,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>268</v>
+        <v>633</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14382,10 +14322,10 @@
         <v>91</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
@@ -14400,7 +14340,7 @@
         <v>80</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>270</v>
+        <v>637</v>
       </c>
       <c r="AP98" t="s" s="2">
         <v>80</v>
@@ -14408,21 +14348,21 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -14434,17 +14374,15 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>138</v>
+        <v>634</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>272</v>
+        <v>639</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>640</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14493,19 +14431,19 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>275</v>
+        <v>638</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>80</v>
@@ -14520,7 +14458,7 @@
         <v>80</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>270</v>
+        <v>637</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>80</v>
@@ -14528,45 +14466,45 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>138</v>
+        <v>447</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>481</v>
+        <v>642</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>482</v>
+        <v>643</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>164</v>
+        <v>644</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>165</v>
+        <v>645</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14615,19 +14553,19 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>80</v>
@@ -14636,13 +14574,13 @@
         <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>80</v>
+        <v>646</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>136</v>
+        <v>647</v>
       </c>
       <c r="AP100" t="s" s="2">
         <v>80</v>
@@ -14676,15 +14614,17 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>652</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>80</v>
@@ -14754,24 +14694,24 @@
         <v>80</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>80</v>
+        <v>653</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>80</v>
+        <v>655</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14794,13 +14734,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>653</v>
+        <v>562</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14851,7 +14791,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14872,24 +14812,24 @@
         <v>80</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>80</v>
+        <v>659</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>80</v>
+        <v>661</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14912,15 +14852,17 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="N103" s="2"/>
+        <v>664</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>665</v>
+      </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14969,7 +14911,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14990,13 +14932,13 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>80</v>
+        <v>666</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>80</v>
@@ -15004,10 +14946,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15030,20 +14972,16 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>467</v>
+        <v>669</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>664</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>80</v>
       </c>
@@ -15091,7 +15029,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -15112,13 +15050,13 @@
         <v>80</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>665</v>
+        <v>80</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="AP104" t="s" s="2">
         <v>80</v>
@@ -15126,10 +15064,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15140,7 +15078,7 @@
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>80</v>
@@ -15152,17 +15090,15 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>668</v>
+        <v>388</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>671</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -15211,13 +15147,13 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>80</v>
@@ -15232,24 +15168,24 @@
         <v>80</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>672</v>
+        <v>80</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>674</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15272,13 +15208,13 @@
         <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>581</v>
+        <v>208</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -15305,13 +15241,11 @@
         <v>80</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="Y106" s="2"/>
       <c r="Z106" t="s" s="2">
-        <v>80</v>
+        <v>680</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
@@ -15329,7 +15263,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15350,24 +15284,24 @@
         <v>80</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>678</v>
+        <v>80</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO106" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>680</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15381,7 +15315,7 @@
         <v>91</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>80</v>
@@ -15390,17 +15324,15 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>653</v>
+        <v>612</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N107" t="s" s="2">
         <v>684</v>
       </c>
+      <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15449,7 +15381,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15510,13 +15442,13 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>688</v>
+        <v>473</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>689</v>
+        <v>266</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>690</v>
+        <v>267</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -15567,7 +15499,7 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>687</v>
+        <v>268</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -15576,10 +15508,10 @@
         <v>91</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>80</v>
@@ -15591,10 +15523,10 @@
         <v>80</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>691</v>
+        <v>270</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>80</v>
@@ -15602,14 +15534,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15628,15 +15560,17 @@
         <v>80</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>408</v>
+        <v>138</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>693</v>
+        <v>272</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -15685,7 +15619,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>692</v>
+        <v>275</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -15697,7 +15631,7 @@
         <v>80</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>80</v>
@@ -15712,7 +15646,7 @@
         <v>80</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>695</v>
+        <v>270</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>80</v>
@@ -15720,42 +15654,46 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>697</v>
+        <v>461</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>80</v>
       </c>
@@ -15779,11 +15717,13 @@
         <v>80</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y110" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z110" t="s" s="2">
-        <v>699</v>
+        <v>80</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>80</v>
@@ -15801,19 +15741,19 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>696</v>
+        <v>620</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>80</v>
@@ -15828,7 +15768,7 @@
         <v>80</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>700</v>
+        <v>136</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>80</v>
@@ -15836,10 +15776,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15847,13 +15787,13 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G111" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>80</v>
@@ -15862,15 +15802,17 @@
         <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>631</v>
+        <v>691</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N111" s="2"/>
+        <v>693</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>694</v>
+      </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>80</v>
@@ -15895,34 +15837,32 @@
         <v>80</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>80</v>
+        <v>695</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>80</v>
+        <v>696</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>80</v>
+        <v>697</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="AC111" s="2"/>
       <c r="AD111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>91</v>
@@ -15940,26 +15880,28 @@
         <v>80</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>80</v>
+        <v>699</v>
       </c>
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>690</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>701</v>
+      </c>
       <c r="D112" t="s" s="2">
         <v>80</v>
       </c>
@@ -15980,15 +15922,17 @@
         <v>80</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>266</v>
+        <v>702</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>693</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>694</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>80</v>
@@ -16037,56 +15981,56 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>268</v>
+        <v>690</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>80</v>
+        <v>703</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>80</v>
+        <v>685</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>270</v>
+        <v>698</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>80</v>
+        <v>699</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>80</v>
@@ -16098,17 +16042,15 @@
         <v>80</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>272</v>
+        <v>705</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>80</v>
@@ -16133,13 +16075,13 @@
         <v>80</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>80</v>
+        <v>707</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>80</v>
+        <v>708</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>80</v>
@@ -16157,19 +16099,19 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>275</v>
+        <v>704</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>80</v>
@@ -16178,28 +16120,28 @@
         <v>80</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>270</v>
+        <v>709</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>80</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
@@ -16212,26 +16154,24 @@
         <v>80</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>138</v>
+        <v>712</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>481</v>
+        <v>713</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>482</v>
+        <v>714</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>80</v>
       </c>
@@ -16279,7 +16219,7 @@
         <v>80</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -16291,13 +16231,13 @@
         <v>80</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>80</v>
+        <v>716</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>80</v>
@@ -16306,492 +16246,14 @@
         <v>80</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>136</v>
+        <v>717</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AC115" s="2"/>
-      <c r="AD115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="C116" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="D116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>709</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>731</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="O118" s="2"/>
-      <c r="P118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="AP118" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP118">
+  <autoFilter ref="A1:AP114">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16801,7 +16263,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI117">
+  <conditionalFormatting sqref="A2:AI113">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:31:35+00:00</t>
+    <t>2024-06-17T10:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T10:03:01+00:00</t>
+    <t>2024-06-17T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:29:46+00:00</t>
+    <t>2024-06-17T13:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:35:15+00:00</t>
+    <t>2024-06-17T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:22:32+00:00</t>
+    <t>2024-06-17T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:02:03+00:00</t>
+    <t>2024-06-17T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:41:32+00:00</t>
+    <t>2024-06-17T15:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:49:27+00:00</t>
+    <t>2024-06-19T11:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T11:28:46+00:00</t>
+    <t>2024-06-19T14:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:43:39+00:00</t>
+    <t>2024-06-19T14:52:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:52:00+00:00</t>
+    <t>2024-06-21T13:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:36:06+00:00</t>
+    <t>2024-06-24T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T09:13:58+00:00</t>
+    <t>2024-06-25T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T08:47:40+00:00</t>
+    <t>2024-06-25T15:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:50:29+00:00</t>
+    <t>2024-07-01T08:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T08:31:50+00:00</t>
+    <t>2024-07-01T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:30:15+00:00</t>
+    <t>2024-07-01T10:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T10:02:25+00:00</t>
+    <t>2024-07-01T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:58:14+00:00</t>
+    <t>2024-07-01T12:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:32:20+00:00</t>
+    <t>2024-07-01T13:52:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:52:38+00:00</t>
+    <t>2024-07-01T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:37+00:00</t>
+    <t>2024-07-02T14:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:09:09+00:00</t>
+    <t>2024-07-08T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T15:06:33+00:00</t>
+    <t>2024-07-09T09:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:06:22+00:00</t>
+    <t>2024-07-09T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:42+00:00</t>
+    <t>2024-07-09T15:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:05:31+00:00</t>
+    <t>2024-07-17T09:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:54:34+00:00</t>
+    <t>2024-07-25T08:23:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
